--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183609.1405207086</v>
+        <v>239416.971800525</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8296716.363718141</v>
+        <v>8303029.495486603</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>99.48316460018934</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>52.50553248131507</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>228.9879555084856</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>230.7903973114777</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>61.29581547509568</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.649393962992062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.1478756737229</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>336.605552503538</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>136.6363841202697</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>63.27823546166481</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>212.6006968854804</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.670777199071</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225799</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64034175572607</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>219.0074848067239</v>
       </c>
     </row>
     <row r="15">
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>161.4887027346016</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1847,10 +1847,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.5395542426782</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586683</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.4289015982189</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4556968337266</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820379</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,10 +2299,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>108.5103196251643</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>101.1195220207934</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776717</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,10 +3010,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>266.1592746401475</v>
       </c>
       <c r="X31" t="n">
-        <v>103.345659457196</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3275,7 +3275,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.588755294886</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800322</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704926</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244307</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.0567773522565</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482739</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314416</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704926</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244307</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.828474294603</v>
+        <v>199.420139880479</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482739</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325817</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>103.8284742946025</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630678</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.887257547977</v>
+        <v>1263.208490437124</v>
       </c>
       <c r="C2" t="n">
-        <v>1277.785188771804</v>
+        <v>1229.106421660951</v>
       </c>
       <c r="D2" t="n">
-        <v>849.2035145090726</v>
+        <v>793.1966368353955</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>763.4622960340947</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>739.6352704837066</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805614</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805614</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805614</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805614</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>2151.645126566209</v>
       </c>
       <c r="W2" t="n">
-        <v>1353.494203032709</v>
+        <v>2150.830076017646</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.392143652423</v>
+        <v>2097.794184622378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.146423992481</v>
+        <v>1689.508060922031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064426</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940203</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>955.6037336452929</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423586</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103197</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291233</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448877</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674659</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2296.12285880733</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2296.12285880733</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>2296.12285880733</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>2064.821893647243</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>1792.795489233534</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.820447932477</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.0044704481411</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>809.9024016719685</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1694.507274562244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1289.651819973277</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>870.5093565525874</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.2636368926449</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.8102096861769</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.6164232000614</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C8" t="n">
-        <v>836.5143544238888</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D8" t="n">
-        <v>804.6449736387374</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E8" t="n">
-        <v>464.639365049305</v>
+        <v>881.9457520785825</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105257</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109474</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.877671982512</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1275.655369299529</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>913.0384192333556</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>912.2233686847929</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>897.1213093045077</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y8" t="n">
-        <v>892.8755896445651</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.2514685507001</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>329.2514685507001</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>329.2514685507001</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>329.2514685507001</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>329.2514685507001</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.161826571869</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929005</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.05813650746</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760566</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>846.669627630996</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172876</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>329.2514685507001</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.2514685507001</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>600.6143099101014</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2859.155227899001</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2859.155227899001</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3839.334894469308</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
@@ -5188,28 +5188,28 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458056</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
         <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
         <v>2197.695917749241</v>
@@ -5227,22 +5227,22 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243222</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847305</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939383</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172022</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928799</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4357.509304245816</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3994.892354179642</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3590.036899590676</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>921.5429130934996</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>748.9812015767245</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>583.1032087782472</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>413.3452050289845</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2145.154869708244</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1858.199361578674</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1586.172957164966</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1340.781202498378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1113.361531812487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E17" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1035.891962983371</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>863.3302514665961</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>697.4522586681188</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>527.694254918856</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>350.9872008806122</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5680,7 +5680,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.710581702358</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168153</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>600.6143099101004</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>199.2164785333643</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590673</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169984</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469637</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5832,19 +5832,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580457</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412706</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427933</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935306</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,22 +5932,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829512</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
         <v>1366.470303162925</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D28" t="n">
         <v>614.3171730324584</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324582</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6643,22 +6643,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
         <v>1371.99516675259</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6838,16 +6838,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681876</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934735</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423629</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423629</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993935</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827331</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785926</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856329</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354696</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V37" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7169,34 +7169,34 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236976</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3718.48614398331</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4546.796018816706</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5093.294804775302</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,7 +7211,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903947</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736195</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751421</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258793</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876355</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.500009313463</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
@@ -7336,7 +7336,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7348,7 +7348,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
         <v>2718.920450173579</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.807784200424</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688186</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321678</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532229</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538982</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477112</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309362</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324588</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.559169283196</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707802</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707802</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.84052543547</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066055</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
         <v>1783.551532113124</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.485965445823</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.205615577161</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004248</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707797</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688186</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321678</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532229</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968675</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.042013538982</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7728,19 +7728,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309362</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324588</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7834,19 +7834,19 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.801834709351</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962456</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419178</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
         <v>1144.575496066698</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803716</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274465</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706658</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791872</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140715</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>19.9466755188696</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.558304846504</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K44" t="n">
-        <v>679.558304846504</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11312,7 +11312,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>184.7831561774883</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.14457787893036</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729423844</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>185.1957776566196</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1599680048241</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.71657238081386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>184.7831561774893</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24020,7 +24020,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.783156177488</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>160.7958207444071</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>69.71657238081391</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.146865729423837</v>
       </c>
       <c r="X31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142728</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307146</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168188</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627264</v>
+        <v>44.00051207685028</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.140099612649247e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.5921776627269</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729931.0284474026</v>
+        <v>731874.8814777401</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729931.0284474026</v>
+        <v>732425.3288589361</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730293.5894037761</v>
+        <v>732425.3288589361</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695351.9642812426</v>
+        <v>695351.9642812427</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695351.9642812427</v>
+        <v>695351.9642812426</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695351.9642812427</v>
+        <v>695351.964281243</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724696.6117651354</v>
+        <v>724696.6117651357</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724696.6117651358</v>
+        <v>724696.6117651357</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214458.9279561635</v>
+        <v>214458.9279561634</v>
       </c>
       <c r="C2" t="n">
         <v>214458.9279561634</v>
@@ -26326,25 +26326,25 @@
         <v>202209.5591886706</v>
       </c>
       <c r="G2" t="n">
-        <v>202209.5591886705</v>
+        <v>202209.5591886707</v>
       </c>
       <c r="H2" t="n">
         <v>202209.5591886706</v>
       </c>
       <c r="I2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="J2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="K2" t="n">
+        <v>210743.0336549409</v>
+      </c>
+      <c r="L2" t="n">
+        <v>210743.0336549409</v>
+      </c>
+      <c r="M2" t="n">
         <v>210743.033654941</v>
-      </c>
-      <c r="L2" t="n">
-        <v>210743.033654941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>210743.0336549409</v>
       </c>
       <c r="N2" t="n">
         <v>210743.0336549409</v>
@@ -26353,7 +26353,7 @@
         <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>133864.3835971967</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414877</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049257</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049256</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162457.4007058797</v>
+        <v>-196066.8484030777</v>
       </c>
       <c r="C6" t="n">
-        <v>-20266.10004616994</v>
+        <v>775.0057953634241</v>
       </c>
       <c r="D6" t="n">
-        <v>-25668.91240579655</v>
+        <v>18115.55016927047</v>
       </c>
       <c r="E6" t="n">
-        <v>-108777.4609816527</v>
+        <v>-46789.80099453655</v>
       </c>
       <c r="F6" t="n">
-        <v>115021.8327703748</v>
+        <v>114945.2742155779</v>
       </c>
       <c r="G6" t="n">
-        <v>115021.8327703747</v>
+        <v>114945.2742155779</v>
       </c>
       <c r="H6" t="n">
-        <v>115021.8327703747</v>
+        <v>114945.2742155779</v>
       </c>
       <c r="I6" t="n">
-        <v>100414.8738458163</v>
+        <v>100391.6495064337</v>
       </c>
       <c r="J6" t="n">
-        <v>7765.124133665595</v>
+        <v>-41851.46434633983</v>
       </c>
       <c r="K6" t="n">
-        <v>118779.5894786558</v>
+        <v>104942.3565714277</v>
       </c>
       <c r="L6" t="n">
-        <v>109831.978390146</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="M6" t="n">
-        <v>-68011.39713181191</v>
+        <v>-16233.57947373034</v>
       </c>
       <c r="N6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392732</v>
       </c>
       <c r="O6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392732</v>
       </c>
       <c r="P6" t="n">
-        <v>118779.5894786557</v>
+        <v>118756.3651392732</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825307</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329.9538327930984</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>362.4455063051673</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27594,16 +27594,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>55.09799753978828</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>12.14743980844395</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>356.3413866025197</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.75255685807437</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>92.83144488974972</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>286.9523711746146</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>100.6571267627658</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.861621967691462e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803716</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274465</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706658</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791872</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140715</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,25 +36832,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -37312,22 +37312,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>19.9466755188696</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37716,10 +37716,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.558304846504</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908063</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K44" t="n">
-        <v>679.558304846504</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38032,7 +38032,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
